--- a/meta/9-1-2.xlsx
+++ b/meta/9-1-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -98,25 +98,6 @@
   </si>
   <si>
     <t>9.1. Развивать качественную, надежную, устойчивую и стойкую инфраструктуру, включая региональную и трансграничную инфраструктуру, в целях поддержки экономического развития и благополучия людей, уделяя особое внимание обеспечению недорогого и равноправного доступа для всех</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1.2. Объем пассажирских и грузовых перевозок в разбивке по видам транспорта. </t>
-  </si>
-  <si>
-    <t>Национальный статистический комитет КР
-(Отдел статистики потребительского рынка, ИКТ и туризма)</t>
-  </si>
-  <si>
-    <t>Мамбеталиева В.Т.</t>
-  </si>
-  <si>
-    <t>vmambetalieva@stat.kg</t>
-  </si>
-  <si>
-    <t>324725, 0555 455010</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Объем пассажирских и грузовых перевозок измеряется показателями:  
@@ -171,17 +152,45 @@
   <si>
     <t>Дезагрегация данных по территории: Республика, область, район по категориям пользователей.</t>
   </si>
+  <si>
+    <t>9.1.2 Объем пассажирских и грузовых перевозок в разбивке по видам транспорта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текеева Л.А.
+</t>
+  </si>
+  <si>
+    <t>Ltekeeva@stat.kg</t>
+  </si>
+  <si>
+    <t>0 (312) 32-47-25</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР
+(Управление статистики торговли и услуг, Информационно-коммуникационных технологий и туризма)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,26 +257,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -578,7 +595,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,16 +645,16 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,23 +662,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="390" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -727,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +752,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,7 +774,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,7 +796,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
